--- a/forecast.xlsx
+++ b/forecast.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewtait/Documents/projects/LearningTree/decision_analysis/load/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0E53D08-E15A-8448-8D84-DF1DCBC8899E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20780" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{FC2B34F2-FD79-B14F-B7E2-A476A6389F0B}"/>
+    <workbookView xWindow="20775" yWindow="5955" windowWidth="27645" windowHeight="16935"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="solution" sheetId="2" r:id="rId2"/>
+    <sheet name="exercise" sheetId="1" r:id="rId1"/>
+    <sheet name="solution" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,19 +31,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
   <si>
     <t>revenue</t>
   </si>
+  <si>
+    <t>Forecast(revenue)</t>
+  </si>
+  <si>
+    <t>Lower Confidence Bound(revenue)</t>
+  </si>
+  <si>
+    <t>Upper Confidence Bound(revenue)</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>MASE</t>
+  </si>
+  <si>
+    <t>SMAPE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,13 +108,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -90,6 +144,2099 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solution!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>solution!$B$2:$B$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>1902000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1753000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1858000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2977000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2279000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2139000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2307000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3986000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3015000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2886000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3262000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5672000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4135000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4063000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4264000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6704000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4889000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4651000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5449000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9520000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7131000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6566000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7560000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12947000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9857000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9913000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10876000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17431000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13185000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12834000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13806000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21268000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16070000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15704000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17092000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25586000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19741000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19340000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20579000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29328000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22717000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23185000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25358000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35746000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29128000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30404000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32714000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43741000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35714000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37955000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43744000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60453000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51042000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>52886000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56576000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>72383000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59700000000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>63404000000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>69981000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E5E-4283-8DF1-5FC3E42EAF29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solution!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast(revenue)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>solution!$A$2:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2005.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2008.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2009.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2009.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2010.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2010.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2010.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2011.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2012.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2013.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2013.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2013.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2014.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2014.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2014.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2015.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2015.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2015.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2016.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2016.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2017.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2017.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2017.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2018.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2018.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2018.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2019.25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2019.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2019.75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2021.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2021.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2021.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2022.25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2022.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2022.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2023.25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2023.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2023.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2024.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>solution!$C$2:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="58">
+                  <c:v>69981000000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>82807792188.491623</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>72238063415.205032</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>77380905529.192612</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>83948947676.936783</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>96781551588.584595</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>86211822815.298004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>91354664929.285568</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>97922707077.029739</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>110755310988.67755</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>100185582215.39098</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>105328424329.37852</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>111896466477.12271</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>124729070388.77052</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>114159341615.48393</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>119302183729.47151</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>125870225877.21567</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>138702829788.86349</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>128133101015.5769</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>133275943129.56447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E5E-4283-8DF1-5FC3E42EAF29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solution!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower Confidence Bound(revenue)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>solution!$A$2:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2005.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2008.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2009.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2009.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2010.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2010.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2010.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2011.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2012.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2013.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2013.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2013.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2014.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2014.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2014.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2015.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2015.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2015.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2016.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2016.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2017.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2017.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2017.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2018.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2018.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2018.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2019.25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2019.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2019.75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2021.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2021.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2021.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2022.25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2022.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2022.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2023.25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2023.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2023.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2024.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>solution!$D$2:$D$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="58" formatCode="0.00E+00">
+                  <c:v>69981000000</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00E+00">
+                  <c:v>79061977474.474792</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00E+00">
+                  <c:v>68051789087.961617</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00E+00">
+                  <c:v>72343508888.894165</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00E+00">
+                  <c:v>77678187571.785614</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00E+00">
+                  <c:v>87026210897.245453</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00E+00">
+                  <c:v>74963418769.583603</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00E+00">
+                  <c:v>78346868262.741318</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00E+00">
+                  <c:v>82924870514.711945</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00E+00">
+                  <c:v>92034768581.685577</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00E+00">
+                  <c:v>79268531921.969589</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00E+00">
+                  <c:v>82029001834.65921</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00E+00">
+                  <c:v>86046536443.173401</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00E+00">
+                  <c:v>94875091379.768341</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00E+00">
+                  <c:v>81573042075.292206</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00E+00">
+                  <c:v>83837988615.327957</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00E+00">
+                  <c:v>87392614169.871826</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00E+00">
+                  <c:v>95936913889.01976</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00E+00">
+                  <c:v>82188447413.803818</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00E+00">
+                  <c:v>84030702340.098022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4E5E-4283-8DF1-5FC3E42EAF29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>solution!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upper Confidence Bound(revenue)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>solution!$A$2:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2005.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2008.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2009.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2009.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2010.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2010.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2010.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2011.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2012.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2013.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2013.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2013.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2014.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2014.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2014.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2015.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2015.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2015.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2016.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2016.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2016.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2017.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2017.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2017.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2018.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2018.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2018.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2019.25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2019.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2019.75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2021.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2021.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2021.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2022.25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2022.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2022.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2023.25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2023.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2023.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2024.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>solution!$E$2:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="58" formatCode="0.00E+00">
+                  <c:v>69981000000</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00E+00">
+                  <c:v>86553606902.508453</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00E+00">
+                  <c:v>76424337742.448456</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00E+00">
+                  <c:v>82418302169.491058</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00E+00">
+                  <c:v>90219707782.087952</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00E+00">
+                  <c:v>106536892279.92374</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00E+00">
+                  <c:v>97460226861.012405</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00E+00">
+                  <c:v>104362461595.82982</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00E+00">
+                  <c:v>112920543639.34753</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00E+00">
+                  <c:v>129475853395.66953</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00E+00">
+                  <c:v>121102632508.81236</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00E+00">
+                  <c:v>128627846824.09784</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00E+00">
+                  <c:v>137746396511.07202</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00E+00">
+                  <c:v>154583049397.77271</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00E+00">
+                  <c:v>146745641155.67566</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00E+00">
+                  <c:v>154766378843.61505</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00E+00">
+                  <c:v>164347837584.55951</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00E+00">
+                  <c:v>181468745688.70721</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00E+00">
+                  <c:v>174077754617.34998</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00E+00">
+                  <c:v>182521183919.03091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4E5E-4283-8DF1-5FC3E42EAF29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="353345160"/>
+        <c:axId val="353345488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="353345160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353345488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="353345488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353345160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E79" totalsRowShown="0">
+  <autoFilter ref="A1:E79"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="year" dataDxfId="4"/>
+    <tableColumn id="2" name="revenue"/>
+    <tableColumn id="3" name="Forecast(revenue)" dataDxfId="3">
+      <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$60,$A$2:$A$60,1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Lower Confidence Bound(revenue)" dataDxfId="2">
+      <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Upper Confidence Bound(revenue)" dataDxfId="1">
+      <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G1:H8" totalsRowShown="0">
+  <autoFilter ref="G1:H8"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Statistic"/>
+    <tableColumn id="2" name="Value" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,24 +2535,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D49689E-0D4A-3046-8A34-87213B5A51E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B60"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -413,7 +2555,7 @@
         <v>1902000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2005.25</v>
       </c>
@@ -421,7 +2563,7 @@
         <v>1753000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2005.5</v>
       </c>
@@ -429,7 +2571,7 @@
         <v>1858000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2005.75</v>
       </c>
@@ -437,7 +2579,7 @@
         <v>2977000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -445,7 +2587,7 @@
         <v>2279000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2006.25</v>
       </c>
@@ -453,7 +2595,7 @@
         <v>2139000000</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006.5</v>
       </c>
@@ -461,7 +2603,7 @@
         <v>2307000000</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006.75</v>
       </c>
@@ -469,7 +2611,7 @@
         <v>3986000000</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -477,7 +2619,7 @@
         <v>3015000000</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2007.25</v>
       </c>
@@ -485,7 +2627,7 @@
         <v>2886000000</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2007.5</v>
       </c>
@@ -493,7 +2635,7 @@
         <v>3262000000</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2007.75</v>
       </c>
@@ -501,7 +2643,7 @@
         <v>5672000000</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2008</v>
       </c>
@@ -509,7 +2651,7 @@
         <v>4135000000</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2008.25</v>
       </c>
@@ -517,7 +2659,7 @@
         <v>4063000000</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2008.5</v>
       </c>
@@ -525,7 +2667,7 @@
         <v>4264000000</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2008.75</v>
       </c>
@@ -533,7 +2675,7 @@
         <v>6704000000</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2009</v>
       </c>
@@ -541,7 +2683,7 @@
         <v>4889000000</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2009.25</v>
       </c>
@@ -549,7 +2691,7 @@
         <v>4651000000</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2009.5</v>
       </c>
@@ -557,7 +2699,7 @@
         <v>5449000000</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2009.75</v>
       </c>
@@ -565,7 +2707,7 @@
         <v>9520000000</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -573,7 +2715,7 @@
         <v>7131000000</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2010.25</v>
       </c>
@@ -581,7 +2723,7 @@
         <v>6566000000</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010.5</v>
       </c>
@@ -589,7 +2731,7 @@
         <v>7560000000</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2010.75</v>
       </c>
@@ -597,7 +2739,7 @@
         <v>12947000000</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -605,7 +2747,7 @@
         <v>9857000000</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2011.25</v>
       </c>
@@ -613,7 +2755,7 @@
         <v>9913000000</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2011.5</v>
       </c>
@@ -621,7 +2763,7 @@
         <v>10876000000</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2011.75</v>
       </c>
@@ -629,7 +2771,7 @@
         <v>17431000000</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2012</v>
       </c>
@@ -637,7 +2779,7 @@
         <v>13185000000</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2012.25</v>
       </c>
@@ -645,7 +2787,7 @@
         <v>12834000000</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2012.5</v>
       </c>
@@ -653,7 +2795,7 @@
         <v>13806000000</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2012.75</v>
       </c>
@@ -661,7 +2803,7 @@
         <v>21268000000</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2013</v>
       </c>
@@ -669,7 +2811,7 @@
         <v>16070000000</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2013.25</v>
       </c>
@@ -677,7 +2819,7 @@
         <v>15704000000</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2013.5</v>
       </c>
@@ -685,7 +2827,7 @@
         <v>17092000000</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2013.75</v>
       </c>
@@ -693,7 +2835,7 @@
         <v>25586000000</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2014</v>
       </c>
@@ -701,7 +2843,7 @@
         <v>19741000000</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2014.25</v>
       </c>
@@ -709,7 +2851,7 @@
         <v>19340000000</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2014.5</v>
       </c>
@@ -717,7 +2859,7 @@
         <v>20579000000</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2014.75</v>
       </c>
@@ -725,7 +2867,7 @@
         <v>29328000000</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2015</v>
       </c>
@@ -733,7 +2875,7 @@
         <v>22717000000</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2015.25</v>
       </c>
@@ -741,7 +2883,7 @@
         <v>23185000000</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2015.5</v>
       </c>
@@ -749,7 +2891,7 @@
         <v>25358000000</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2015.75</v>
       </c>
@@ -757,7 +2899,7 @@
         <v>35746000000</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2016</v>
       </c>
@@ -765,7 +2907,7 @@
         <v>29128000000</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2016.25</v>
       </c>
@@ -773,7 +2915,7 @@
         <v>30404000000</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2016.5</v>
       </c>
@@ -781,7 +2923,7 @@
         <v>32714000000</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2016.75</v>
       </c>
@@ -789,7 +2931,7 @@
         <v>43741000000</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2017</v>
       </c>
@@ -797,7 +2939,7 @@
         <v>35714000000</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2017.25</v>
       </c>
@@ -805,7 +2947,7 @@
         <v>37955000000</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2017.5</v>
       </c>
@@ -813,7 +2955,7 @@
         <v>43744000000</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2017.75</v>
       </c>
@@ -821,7 +2963,7 @@
         <v>60453000000</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -829,7 +2971,7 @@
         <v>51042000000</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2018.25</v>
       </c>
@@ -837,7 +2979,7 @@
         <v>52886000000</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2018.5</v>
       </c>
@@ -845,7 +2987,7 @@
         <v>56576000000</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2018.75</v>
       </c>
@@ -853,7 +2995,7 @@
         <v>72383000000</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2019</v>
       </c>
@@ -861,7 +3003,7 @@
         <v>59700000000</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2019.25</v>
       </c>
@@ -869,7 +3011,7 @@
         <v>63404000000</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2019.5</v>
       </c>
@@ -883,13 +3025,903 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A3594C-072F-5244-AD10-636DDFB08EEF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A64" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="5" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1902000000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3">
+        <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$60,$A$2:$A$60,1,1,1)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2005.25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1753000000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3">
+        <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$60,$A$2:$A$60,2,1,1)</f>
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2005.5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1858000000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3">
+        <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$60,$A$2:$A$60,3,1,1)</f>
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2005.75</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2977000000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
+        <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$60,$A$2:$A$60,4,1,1)</f>
+        <v>1.2928867918812421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2279000000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$60,$A$2:$A$60,5,1,1)</f>
+        <v>5.6756018650260892E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2006.25</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2139000000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3">
+        <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$60,$A$2:$A$60,6,1,1)</f>
+        <v>3194835687.6769733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2006.5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2307000000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3">
+        <f>_xlfn.FORECAST.ETS.STAT($B$2:$B$60,$A$2:$A$60,7,1,1)</f>
+        <v>3897723943.4861922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2006.75</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3986000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3015000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2007.25</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2886000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2007.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3262000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2007.75</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5672000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4135000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2008.25</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4063000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2008.5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4264000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2008.75</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6704000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4889000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2009.25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4651000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2009.5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5449000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2009.75</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9520000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7131000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2010.25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6566000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2010.5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7560000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>2010.75</v>
+      </c>
+      <c r="B25" s="1">
+        <v>12947000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9857000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2011.25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9913000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2011.5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10876000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>2011.75</v>
+      </c>
+      <c r="B29" s="1">
+        <v>17431000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B30" s="1">
+        <v>13185000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2012.25</v>
+      </c>
+      <c r="B31" s="1">
+        <v>12834000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>2012.5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>13806000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>2012.75</v>
+      </c>
+      <c r="B33" s="1">
+        <v>21268000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B34" s="1">
+        <v>16070000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>2013.25</v>
+      </c>
+      <c r="B35" s="1">
+        <v>15704000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>2013.5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>17092000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>2013.75</v>
+      </c>
+      <c r="B37" s="1">
+        <v>25586000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B38" s="1">
+        <v>19741000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>2014.25</v>
+      </c>
+      <c r="B39" s="1">
+        <v>19340000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>2014.5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>20579000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>2014.75</v>
+      </c>
+      <c r="B41" s="1">
+        <v>29328000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B42" s="1">
+        <v>22717000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>2015.25</v>
+      </c>
+      <c r="B43" s="1">
+        <v>23185000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>2015.5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>25358000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2015.75</v>
+      </c>
+      <c r="B45" s="1">
+        <v>35746000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B46" s="1">
+        <v>29128000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2016.25</v>
+      </c>
+      <c r="B47" s="1">
+        <v>30404000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2016.5</v>
+      </c>
+      <c r="B48" s="1">
+        <v>32714000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>2016.75</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43741000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B50" s="1">
+        <v>35714000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>2017.25</v>
+      </c>
+      <c r="B51" s="1">
+        <v>37955000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>2017.5</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43744000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>2017.75</v>
+      </c>
+      <c r="B53" s="1">
+        <v>60453000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="1">
+        <v>51042000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>2018.25</v>
+      </c>
+      <c r="B55" s="1">
+        <v>52886000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>2018.5</v>
+      </c>
+      <c r="B56" s="1">
+        <v>56576000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>2018.75</v>
+      </c>
+      <c r="B57" s="1">
+        <v>72383000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B58" s="1">
+        <v>59700000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>2019.25</v>
+      </c>
+      <c r="B59" s="1">
+        <v>63404000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>2019.5</v>
+      </c>
+      <c r="B60" s="1">
+        <v>69981000000</v>
+      </c>
+      <c r="C60" s="1">
+        <v>69981000000</v>
+      </c>
+      <c r="D60" s="2">
+        <v>69981000000</v>
+      </c>
+      <c r="E60" s="2">
+        <v>69981000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>2019.75</v>
+      </c>
+      <c r="C61" s="1">
+        <f>_xlfn.FORECAST.ETS(A61,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>82807792188.491623</v>
+      </c>
+      <c r="D61" s="2">
+        <f>C61-_xlfn.FORECAST.ETS.CONFINT(A61,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>79061977474.474792</v>
+      </c>
+      <c r="E61" s="2">
+        <f>C61+_xlfn.FORECAST.ETS.CONFINT(A61,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>86553606902.508453</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C62" s="1">
+        <f>_xlfn.FORECAST.ETS(A62,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>72238063415.205032</v>
+      </c>
+      <c r="D62" s="2">
+        <f>C62-_xlfn.FORECAST.ETS.CONFINT(A62,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>68051789087.961617</v>
+      </c>
+      <c r="E62" s="2">
+        <f>C62+_xlfn.FORECAST.ETS.CONFINT(A62,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>76424337742.448456</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>2020.25</v>
+      </c>
+      <c r="C63" s="1">
+        <f>_xlfn.FORECAST.ETS(A63,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>77380905529.192612</v>
+      </c>
+      <c r="D63" s="2">
+        <f>C63-_xlfn.FORECAST.ETS.CONFINT(A63,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>72343508888.894165</v>
+      </c>
+      <c r="E63" s="2">
+        <f>C63+_xlfn.FORECAST.ETS.CONFINT(A63,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>82418302169.491058</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>2020.5</v>
+      </c>
+      <c r="C64" s="1">
+        <f>_xlfn.FORECAST.ETS(A64,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>83948947676.936783</v>
+      </c>
+      <c r="D64" s="2">
+        <f>C64-_xlfn.FORECAST.ETS.CONFINT(A64,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>77678187571.785614</v>
+      </c>
+      <c r="E64" s="2">
+        <f>C64+_xlfn.FORECAST.ETS.CONFINT(A64,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>90219707782.087952</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>2020.75</v>
+      </c>
+      <c r="C65" s="1">
+        <f>_xlfn.FORECAST.ETS(A65,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>96781551588.584595</v>
+      </c>
+      <c r="D65" s="2">
+        <f>C65-_xlfn.FORECAST.ETS.CONFINT(A65,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>87026210897.245453</v>
+      </c>
+      <c r="E65" s="2">
+        <f>C65+_xlfn.FORECAST.ETS.CONFINT(A65,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>106536892279.92374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C66" s="1">
+        <f>_xlfn.FORECAST.ETS(A66,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>86211822815.298004</v>
+      </c>
+      <c r="D66" s="2">
+        <f>C66-_xlfn.FORECAST.ETS.CONFINT(A66,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>74963418769.583603</v>
+      </c>
+      <c r="E66" s="2">
+        <f>C66+_xlfn.FORECAST.ETS.CONFINT(A66,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>97460226861.012405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>2021.25</v>
+      </c>
+      <c r="C67" s="1">
+        <f>_xlfn.FORECAST.ETS(A67,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>91354664929.285568</v>
+      </c>
+      <c r="D67" s="2">
+        <f>C67-_xlfn.FORECAST.ETS.CONFINT(A67,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>78346868262.741318</v>
+      </c>
+      <c r="E67" s="2">
+        <f>C67+_xlfn.FORECAST.ETS.CONFINT(A67,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>104362461595.82982</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>2021.5</v>
+      </c>
+      <c r="C68" s="1">
+        <f>_xlfn.FORECAST.ETS(A68,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>97922707077.029739</v>
+      </c>
+      <c r="D68" s="2">
+        <f>C68-_xlfn.FORECAST.ETS.CONFINT(A68,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>82924870514.711945</v>
+      </c>
+      <c r="E68" s="2">
+        <f>C68+_xlfn.FORECAST.ETS.CONFINT(A68,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>112920543639.34753</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>2021.75</v>
+      </c>
+      <c r="C69" s="1">
+        <f>_xlfn.FORECAST.ETS(A69,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>110755310988.67755</v>
+      </c>
+      <c r="D69" s="2">
+        <f>C69-_xlfn.FORECAST.ETS.CONFINT(A69,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>92034768581.685577</v>
+      </c>
+      <c r="E69" s="2">
+        <f>C69+_xlfn.FORECAST.ETS.CONFINT(A69,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>129475853395.66953</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C70" s="1">
+        <f>_xlfn.FORECAST.ETS(A70,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>100185582215.39098</v>
+      </c>
+      <c r="D70" s="2">
+        <f>C70-_xlfn.FORECAST.ETS.CONFINT(A70,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>79268531921.969589</v>
+      </c>
+      <c r="E70" s="2">
+        <f>C70+_xlfn.FORECAST.ETS.CONFINT(A70,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>121102632508.81236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>2022.25</v>
+      </c>
+      <c r="C71" s="1">
+        <f>_xlfn.FORECAST.ETS(A71,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>105328424329.37852</v>
+      </c>
+      <c r="D71" s="2">
+        <f>C71-_xlfn.FORECAST.ETS.CONFINT(A71,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>82029001834.65921</v>
+      </c>
+      <c r="E71" s="2">
+        <f>C71+_xlfn.FORECAST.ETS.CONFINT(A71,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>128627846824.09784</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>2022.5</v>
+      </c>
+      <c r="C72" s="1">
+        <f>_xlfn.FORECAST.ETS(A72,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>111896466477.12271</v>
+      </c>
+      <c r="D72" s="2">
+        <f>C72-_xlfn.FORECAST.ETS.CONFINT(A72,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>86046536443.173401</v>
+      </c>
+      <c r="E72" s="2">
+        <f>C72+_xlfn.FORECAST.ETS.CONFINT(A72,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>137746396511.07202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>2022.75</v>
+      </c>
+      <c r="C73" s="1">
+        <f>_xlfn.FORECAST.ETS(A73,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>124729070388.77052</v>
+      </c>
+      <c r="D73" s="2">
+        <f>C73-_xlfn.FORECAST.ETS.CONFINT(A73,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>94875091379.768341</v>
+      </c>
+      <c r="E73" s="2">
+        <f>C73+_xlfn.FORECAST.ETS.CONFINT(A73,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>154583049397.77271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C74" s="1">
+        <f>_xlfn.FORECAST.ETS(A74,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>114159341615.48393</v>
+      </c>
+      <c r="D74" s="2">
+        <f>C74-_xlfn.FORECAST.ETS.CONFINT(A74,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>81573042075.292206</v>
+      </c>
+      <c r="E74" s="2">
+        <f>C74+_xlfn.FORECAST.ETS.CONFINT(A74,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>146745641155.67566</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>2023.25</v>
+      </c>
+      <c r="C75" s="1">
+        <f>_xlfn.FORECAST.ETS(A75,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>119302183729.47151</v>
+      </c>
+      <c r="D75" s="2">
+        <f>C75-_xlfn.FORECAST.ETS.CONFINT(A75,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>83837988615.327957</v>
+      </c>
+      <c r="E75" s="2">
+        <f>C75+_xlfn.FORECAST.ETS.CONFINT(A75,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>154766378843.61505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>2023.5</v>
+      </c>
+      <c r="C76" s="1">
+        <f>_xlfn.FORECAST.ETS(A76,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>125870225877.21567</v>
+      </c>
+      <c r="D76" s="2">
+        <f>C76-_xlfn.FORECAST.ETS.CONFINT(A76,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>87392614169.871826</v>
+      </c>
+      <c r="E76" s="2">
+        <f>C76+_xlfn.FORECAST.ETS.CONFINT(A76,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>164347837584.55951</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>2023.75</v>
+      </c>
+      <c r="C77" s="1">
+        <f>_xlfn.FORECAST.ETS(A77,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>138702829788.86349</v>
+      </c>
+      <c r="D77" s="2">
+        <f>C77-_xlfn.FORECAST.ETS.CONFINT(A77,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>95936913889.01976</v>
+      </c>
+      <c r="E77" s="2">
+        <f>C77+_xlfn.FORECAST.ETS.CONFINT(A77,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>181468745688.70721</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C78" s="1">
+        <f>_xlfn.FORECAST.ETS(A78,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>128133101015.5769</v>
+      </c>
+      <c r="D78" s="2">
+        <f>C78-_xlfn.FORECAST.ETS.CONFINT(A78,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>82188447413.803818</v>
+      </c>
+      <c r="E78" s="2">
+        <f>C78+_xlfn.FORECAST.ETS.CONFINT(A78,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>174077754617.34998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>2024.25</v>
+      </c>
+      <c r="C79" s="1">
+        <f>_xlfn.FORECAST.ETS(A79,$B$2:$B$60,$A$2:$A$60,1,1)</f>
+        <v>133275943129.56447</v>
+      </c>
+      <c r="D79" s="2">
+        <f>C79-_xlfn.FORECAST.ETS.CONFINT(A79,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>84030702340.098022</v>
+      </c>
+      <c r="E79" s="2">
+        <f>C79+_xlfn.FORECAST.ETS.CONFINT(A79,$B$2:$B$60,$A$2:$A$60,0.95,1,1)</f>
+        <v>182521183919.03091</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>